--- a/curation/draft/package15/R15_BC_SDTM_LB_New.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_LB_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B2C299-FD15-4799-BE19-21EDA1F07E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D809572-8490-4BEB-8287-554944FB0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{894F07F9-5C18-45D8-B3C9-5B6CB2239614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{894F07F9-5C18-45D8-B3C9-5B6CB2239614}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_LB" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5370" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5370" uniqueCount="348">
   <si>
     <t>package_date</t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>Test Method</t>
+  </si>
+  <si>
+    <t>Laboratory Tests;Hematology Tests;Blood Cell Counts;Blood Cell Count Ratio Measurements</t>
   </si>
 </sst>
 </file>
@@ -1580,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B82A593-EDB4-40BA-8BFD-C4877C5CB069}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="A55:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +2886,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -4125,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B981A277-EF71-4641-95B4-E3DB23305F49}">
   <dimension ref="A1:AF234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -21962,18 +21965,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="78df30022ac75b6f130ed86fbc32874d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f24eea0decb7759ecb0be7354c75dac" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -22230,6 +22221,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57BA478-9D0A-4B66-9419-8BF1F3CCEC30}">
   <ds:schemaRefs>
@@ -22239,17 +22242,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E33E306-C791-4F19-AAAF-10E293A56A79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB7D13E-5BA3-4193-A60B-7D9C05C01176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22266,4 +22258,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E33E306-C791-4F19-AAAF-10E293A56A79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>